--- a/excel_reports/time_in_and_out_home.xlsx
+++ b/excel_reports/time_in_and_out_home.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\OneDrive\Escritorio\repos\resumenipa\excel_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C539847-ABCE-486B-9FB6-4AC9C1521191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1389647-A70A-458A-932A-E5F79675320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -125,6 +125,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1405,34 +1406,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>178.6727533333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195</c:v>
+                  <c:v>201.55052444444439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>154.36643361111109</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>223</c:v>
+                  <c:v>106.68880666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206</c:v>
+                  <c:v>73.316273888888887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>132</c:v>
+                  <c:v>117.35232999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189</c:v>
+                  <c:v>42.655658611111107</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>279</c:v>
+                  <c:v>183.83810361111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>282</c:v>
+                  <c:v>212.19067861111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>144</c:v>
+                  <c:v>127.88500500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,34 +1513,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.8337616666666672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>8.144715555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158</c:v>
+                  <c:v>3.3185705555555551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>17.479679444444439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4.1962247222222224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>2.2162852777777782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>7.5203888888888876E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>1.331275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.42446</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>7.6480355555555546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,7 +2354,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nelly Herrada" refreshedDate="45209.659060532409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{21B3D194-71B0-44C7-88DC-32AD1EC97C3E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nelly Herrada" refreshedDate="45211.630962152776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{21B3D194-71B0-44C7-88DC-32AD1EC97C3E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D11" sheet="Sheet1"/>
   </cacheSource>
@@ -2376,30 +2377,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="time_inside" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="130" maxValue="282" count="10">
-        <n v="240"/>
-        <n v="195"/>
-        <n v="130"/>
-        <n v="223"/>
-        <n v="206"/>
-        <n v="132"/>
-        <n v="189"/>
-        <n v="279"/>
-        <n v="282"/>
-        <n v="144"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="42.655658611111107" maxValue="212.19067861111111"/>
     </cacheField>
     <cacheField name="time_outside" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="158" count="8">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="158"/>
-        <n v="2"/>
-        <n v="5"/>
-        <n v="19"/>
-        <n v="4"/>
-        <n v="140"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.5203888888888876E-2" maxValue="17.479679444444439"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2415,68 +2396,68 @@
   <r>
     <x v="0"/>
     <s v="*862095056244426"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="178.6727533333333"/>
+    <n v="2.8337616666666672"/>
   </r>
   <r>
     <x v="1"/>
     <s v="*862095056372110"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="201.55052444444439"/>
+    <n v="8.144715555555555"/>
   </r>
   <r>
     <x v="2"/>
     <s v="*862095056194456"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="154.36643361111109"/>
+    <n v="3.3185705555555551"/>
   </r>
   <r>
     <x v="3"/>
     <s v="*862095056162255"/>
-    <x v="3"/>
-    <x v="0"/>
+    <n v="106.68880666666669"/>
+    <n v="17.479679444444439"/>
   </r>
   <r>
     <x v="4"/>
     <s v="*862095056154922"/>
-    <x v="4"/>
-    <x v="3"/>
+    <n v="73.316273888888887"/>
+    <n v="4.1962247222222224"/>
   </r>
   <r>
     <x v="5"/>
     <s v="*862095056193748"/>
-    <x v="5"/>
-    <x v="4"/>
+    <n v="117.35232999999999"/>
+    <n v="2.2162852777777782"/>
   </r>
   <r>
     <x v="6"/>
     <s v="*862095056193714"/>
-    <x v="6"/>
-    <x v="5"/>
+    <n v="42.655658611111107"/>
+    <n v="7.5203888888888876E-2"/>
   </r>
   <r>
     <x v="7"/>
     <s v="*862095056169599"/>
-    <x v="7"/>
-    <x v="6"/>
+    <n v="183.83810361111111"/>
+    <n v="1.331275"/>
   </r>
   <r>
     <x v="8"/>
     <s v="*862095056196055"/>
-    <x v="8"/>
-    <x v="0"/>
+    <n v="212.19067861111111"/>
+    <n v="0.42446"/>
   </r>
   <r>
     <x v="9"/>
     <s v="*867730053402727"/>
-    <x v="9"/>
-    <x v="7"/>
+    <n v="127.88500500000001"/>
+    <n v="7.6480355555555546"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D74EB92B-35E6-408F-B501-BBFD9668EDA0}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D74EB92B-35E6-408F-B501-BBFD9668EDA0}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="F1:H12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -2495,34 +2476,8 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="11">
-        <item x="2"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -2577,7 +2532,7 @@
     <dataField name="Horas en casa" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Horas afuera" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="6">
     <chartFormat chart="0" format="18" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -2588,6 +2543,42 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="23" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2896,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,19 +2943,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>240</v>
+        <v>178.6727533333333</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.8337616666666672</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4">
-        <v>240</v>
+        <v>178.6727533333333</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <v>2.8337616666666672</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2975,19 +2966,19 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>195</v>
+        <v>201.55052444444439</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>8.144715555555555</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="4">
-        <v>195</v>
+        <v>201.55052444444439</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>8.144715555555555</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2998,19 +2989,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>154.36643361111109</v>
       </c>
       <c r="D4">
-        <v>158</v>
+        <v>3.3185705555555551</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
-        <v>130</v>
+        <v>154.36643361111109</v>
       </c>
       <c r="H4" s="4">
-        <v>158</v>
+        <v>3.3185705555555551</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3021,19 +3012,19 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>223</v>
+        <v>106.68880666666669</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>17.479679444444439</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>223</v>
+        <v>106.68880666666669</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>17.479679444444439</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3044,19 +3035,19 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>206</v>
+        <v>73.316273888888887</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4.1962247222222224</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4">
-        <v>206</v>
+        <v>73.316273888888887</v>
       </c>
       <c r="H6" s="4">
-        <v>2</v>
+        <v>4.1962247222222224</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3067,19 +3058,19 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>132</v>
+        <v>117.35232999999999</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2.2162852777777782</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
-        <v>132</v>
+        <v>117.35232999999999</v>
       </c>
       <c r="H7" s="4">
-        <v>5</v>
+        <v>2.2162852777777782</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3090,19 +3081,19 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>189</v>
+        <v>42.655658611111107</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>7.5203888888888876E-2</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="4">
-        <v>189</v>
+        <v>42.655658611111107</v>
       </c>
       <c r="H8" s="4">
-        <v>19</v>
+        <v>7.5203888888888876E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3113,19 +3104,19 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>279</v>
+        <v>183.83810361111111</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1.331275</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="4">
-        <v>279</v>
+        <v>183.83810361111111</v>
       </c>
       <c r="H9" s="4">
-        <v>4</v>
+        <v>1.331275</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3136,19 +3127,19 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>282</v>
+        <v>212.19067861111111</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.42446</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="4">
-        <v>282</v>
+        <v>212.19067861111111</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>0.42446</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3159,19 +3150,19 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>144</v>
+        <v>127.88500500000001</v>
       </c>
       <c r="D11">
-        <v>140</v>
+        <v>7.6480355555555546</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="4">
-        <v>144</v>
+        <v>127.88500500000001</v>
       </c>
       <c r="H11" s="4">
-        <v>140</v>
+        <v>7.6480355555555546</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3179,10 +3170,10 @@
         <v>25</v>
       </c>
       <c r="G12" s="4">
-        <v>2020</v>
+        <v>1398.5165677777775</v>
       </c>
       <c r="H12" s="4">
-        <v>329</v>
+        <v>47.668211666666657</v>
       </c>
     </row>
   </sheetData>
